--- a/data/trans_orig/P33B2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Provincia-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4814</v>
+        <v>4662</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002523371287959411</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01509722928212116</v>
+        <v>0.01462034479535609</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -762,19 +762,19 @@
         <v>2008</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4990</v>
+        <v>4799</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.006353732961120615</v>
+        <v>0.006353732961120616</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001569740649886611</v>
+        <v>0.001588849617170955</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01578726385484371</v>
+        <v>0.01518412021641443</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -783,19 +783,19 @@
         <v>2813</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6613</v>
+        <v>6929</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004430152320158582</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001566271631112715</v>
+        <v>0.001552059859286969</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01041529983095096</v>
+        <v>0.01091267961017165</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>33467</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23720</v>
+        <v>24103</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43989</v>
+        <v>43419</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1049644070844747</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07439363058100734</v>
+        <v>0.07559626311383641</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1379623985661491</v>
+        <v>0.1361773548327254</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>80</v>
@@ -833,19 +833,19 @@
         <v>40150</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32048</v>
+        <v>31662</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49263</v>
+        <v>49892</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1270319415872</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1013995144442692</v>
+        <v>0.1001784236007839</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1558639307504434</v>
+        <v>0.1578553296052254</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>118</v>
@@ -854,19 +854,19 @@
         <v>73617</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>61420</v>
+        <v>61348</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>88054</v>
+        <v>88226</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1159497812625925</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09673868196900896</v>
+        <v>0.09662575860251789</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1386886921718826</v>
+        <v>0.1389584222749303</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>26171</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17946</v>
+        <v>17134</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>36574</v>
+        <v>37434</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.08208067853489041</v>
+        <v>0.08208067853489043</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05628310035658905</v>
+        <v>0.05373780595741316</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1147077773792322</v>
+        <v>0.1174035027424542</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>76</v>
@@ -904,19 +904,19 @@
         <v>45171</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35722</v>
+        <v>35349</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>57087</v>
+        <v>56407</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1429188104576843</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1130231177650811</v>
+        <v>0.1118421683584126</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1806215605990705</v>
+        <v>0.1784692689476249</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>105</v>
@@ -925,19 +925,19 @@
         <v>71342</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>58302</v>
+        <v>57617</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>86861</v>
+        <v>87911</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.112366329312373</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0918275330886795</v>
+        <v>0.09074824418018965</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1368099992844874</v>
+        <v>0.1384637425786545</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>258402</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>244889</v>
+        <v>243325</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>271200</v>
+        <v>270659</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8104315430926754</v>
+        <v>0.8104315430926755</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.768049285459984</v>
+        <v>0.7631456317898146</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8505702375565866</v>
+        <v>0.8488738646597327</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>378</v>
@@ -975,19 +975,19 @@
         <v>228732</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>216615</v>
+        <v>215011</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>241882</v>
+        <v>240766</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7236955149939951</v>
+        <v>0.7236955149939952</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6853577885582388</v>
+        <v>0.6802847963223871</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7653031365248999</v>
+        <v>0.7617695130612696</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>641</v>
@@ -996,19 +996,19 @@
         <v>487134</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>468659</v>
+        <v>467432</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>505540</v>
+        <v>505973</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.767253737104876</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7381541900287184</v>
+        <v>0.7362228975909108</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7962438022153276</v>
+        <v>0.796925745263515</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>21248</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12296</v>
+        <v>11936</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>37146</v>
+        <v>35283</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04004230668035234</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02317204977908158</v>
+        <v>0.02249271321639299</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07000060292076474</v>
+        <v>0.06649007259830726</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>49</v>
@@ -1121,19 +1121,19 @@
         <v>34390</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>25249</v>
+        <v>25773</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>44263</v>
+        <v>45572</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.06292811678499739</v>
+        <v>0.06292811678499741</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04620102149781213</v>
+        <v>0.04715990861506512</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08099372840752804</v>
+        <v>0.08338956500457685</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>64</v>
@@ -1142,19 +1142,19 @@
         <v>55638</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>42902</v>
+        <v>43533</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>74616</v>
+        <v>73439</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05165356438883279</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03982919547175094</v>
+        <v>0.04041531445009636</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06927188662923622</v>
+        <v>0.06817987655535977</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>29576</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19059</v>
+        <v>19389</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43545</v>
+        <v>44777</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05573621357844856</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03591701672199712</v>
+        <v>0.03653867170047089</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08205933901516277</v>
+        <v>0.08438143054023499</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -1192,19 +1192,19 @@
         <v>47667</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36992</v>
+        <v>36917</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59489</v>
+        <v>60944</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08722390304789383</v>
+        <v>0.08722390304789386</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06768896549115813</v>
+        <v>0.06755290298492762</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1088562365944888</v>
+        <v>0.1115177048026981</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>93</v>
@@ -1213,19 +1213,19 @@
         <v>77244</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62063</v>
+        <v>62459</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>94203</v>
+        <v>95135</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07171168813681379</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05761834936977213</v>
+        <v>0.05798546838047147</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08745614280681506</v>
+        <v>0.0883219759689802</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>87133</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>67241</v>
+        <v>67999</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>106853</v>
+        <v>109361</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1642022738011112</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1267145878849787</v>
+        <v>0.1281428196935835</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2013639974464568</v>
+        <v>0.2060905164356633</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>171</v>
@@ -1263,19 +1263,19 @@
         <v>117979</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>102811</v>
+        <v>103632</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>135967</v>
+        <v>134114</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.215883701440814</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1881275253706227</v>
+        <v>0.1896313880814557</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2487980798764094</v>
+        <v>0.2454084615277818</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>243</v>
@@ -1284,19 +1284,19 @@
         <v>205113</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>178917</v>
+        <v>181876</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>230147</v>
+        <v>232019</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1904231666741573</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1661035192059107</v>
+        <v>0.1688506634384112</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2136642665448517</v>
+        <v>0.2154023459833384</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>392689</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>365921</v>
+        <v>366751</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>414746</v>
+        <v>416407</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7400192059400879</v>
+        <v>0.7400192059400877</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6895742614129862</v>
+        <v>0.6911384416738658</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7815849693466689</v>
+        <v>0.7847165139422321</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>428</v>
@@ -1334,19 +1334,19 @@
         <v>346458</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>324933</v>
+        <v>324505</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>366194</v>
+        <v>364068</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6339642787262948</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5945766014194511</v>
+        <v>0.5937941930106185</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6700796227678231</v>
+        <v>0.6661877817442572</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>699</v>
@@ -1355,19 +1355,19 @@
         <v>739147</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>709201</v>
+        <v>707608</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>771789</v>
+        <v>770296</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.6862115808001963</v>
+        <v>0.6862115808001962</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6584109318789484</v>
+        <v>0.6569312518088976</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7165164439285958</v>
+        <v>0.7151297083193031</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>17375</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11000</v>
+        <v>11480</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26038</v>
+        <v>26474</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05498540623098853</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0348114318355959</v>
+        <v>0.03632952511942729</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08240057453878941</v>
+        <v>0.0837792723039292</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>53</v>
@@ -1480,19 +1480,19 @@
         <v>33141</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>25105</v>
+        <v>24957</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42874</v>
+        <v>42573</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09313494428218314</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07055209806508049</v>
+        <v>0.07013401590032962</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1204850008732652</v>
+        <v>0.1196414926348391</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>76</v>
@@ -1501,19 +1501,19 @@
         <v>50516</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>40388</v>
+        <v>40384</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>63421</v>
+        <v>62616</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.07519156668109561</v>
+        <v>0.07519156668109563</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06011565031287418</v>
+        <v>0.0601095271358196</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09439886245050194</v>
+        <v>0.09320071078999548</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>24719</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17446</v>
+        <v>16721</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>36009</v>
+        <v>35253</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07822548811881473</v>
+        <v>0.07822548811881472</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05520934256344045</v>
+        <v>0.05291594575535656</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1139552804501288</v>
+        <v>0.1115621743681147</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>80</v>
@@ -1551,19 +1551,19 @@
         <v>48237</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>38152</v>
+        <v>38209</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>59224</v>
+        <v>59375</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.135556332521059</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.107216783808007</v>
+        <v>0.1073773623975945</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1664339982698398</v>
+        <v>0.1668571205841161</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>110</v>
@@ -1572,19 +1572,19 @@
         <v>72955</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>60137</v>
+        <v>59365</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>87850</v>
+        <v>87730</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1085911570078407</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.08951211845398133</v>
+        <v>0.08836297822650103</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1307604264391148</v>
+        <v>0.1305826563424435</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>45697</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35031</v>
+        <v>35125</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57802</v>
+        <v>58854</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1446128766522241</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1108601895483727</v>
+        <v>0.1111572303785401</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1829231312217739</v>
+        <v>0.1862514247011024</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>123</v>
@@ -1622,19 +1622,19 @@
         <v>74935</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>63192</v>
+        <v>63120</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>87697</v>
+        <v>88062</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2105849288047983</v>
+        <v>0.2105849288047984</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1775840608571519</v>
+        <v>0.1773813585300034</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2464494351970727</v>
+        <v>0.2474746866407046</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>182</v>
@@ -1643,19 +1643,19 @@
         <v>120632</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>103725</v>
+        <v>105000</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>137540</v>
+        <v>138126</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1795554195797132</v>
+        <v>0.1795554195797133</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1543905735890628</v>
+        <v>0.1562885274172062</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2047222125635167</v>
+        <v>0.2055949848513287</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>228203</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>213149</v>
+        <v>213392</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>241544</v>
+        <v>242193</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7221762289979725</v>
+        <v>0.7221762289979726</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.674538435126088</v>
+        <v>0.6753063093015387</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7643961416990973</v>
+        <v>0.7664489436903272</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>279</v>
@@ -1693,19 +1693,19 @@
         <v>199529</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>184915</v>
+        <v>183624</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>215356</v>
+        <v>215265</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5607237943919595</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5196539194860768</v>
+        <v>0.5160262152524144</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6052002404640243</v>
+        <v>0.604944064432379</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>527</v>
@@ -1714,19 +1714,19 @@
         <v>427732</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>405169</v>
+        <v>402406</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>449570</v>
+        <v>449202</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6366618567313503</v>
+        <v>0.6366618567313505</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6030772356474536</v>
+        <v>0.5989640483262196</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6691663339694507</v>
+        <v>0.6686187272435938</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>23338</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14375</v>
+        <v>14703</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36017</v>
+        <v>37108</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06254326900888511</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03852347654068266</v>
+        <v>0.0394016355961984</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09652176739099207</v>
+        <v>0.09944724472632527</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -1839,19 +1839,19 @@
         <v>37792</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28841</v>
+        <v>29331</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50851</v>
+        <v>51584</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.08956227866590648</v>
+        <v>0.08956227866590649</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06835091212992116</v>
+        <v>0.0695119176962434</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1205115894662601</v>
+        <v>0.1222483370233654</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>79</v>
@@ -1860,19 +1860,19 @@
         <v>61130</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>47927</v>
+        <v>47264</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79933</v>
+        <v>78405</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.07688220024108496</v>
+        <v>0.07688220024108494</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06027793884938965</v>
+        <v>0.0594438300545591</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1005313878958816</v>
+        <v>0.09860946303969195</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>35945</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>24245</v>
+        <v>23819</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>53461</v>
+        <v>54115</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09633046550048339</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06497413129238434</v>
+        <v>0.06383207771486597</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1432702281983737</v>
+        <v>0.1450233999009725</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>75</v>
@@ -1910,19 +1910,19 @@
         <v>49329</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38321</v>
+        <v>38520</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>64398</v>
+        <v>64581</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1169038211224443</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09081653368483401</v>
+        <v>0.0912878235378576</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1526162712036097</v>
+        <v>0.1530497077168094</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>106</v>
@@ -1931,19 +1931,19 @@
         <v>85274</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>69079</v>
+        <v>69675</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>106623</v>
+        <v>105783</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1072487017801846</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0868804773729521</v>
+        <v>0.08762987335435825</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1340990196801911</v>
+        <v>0.1330430180626221</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>48921</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>36021</v>
+        <v>35201</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>68116</v>
+        <v>65617</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1311039787497737</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09653474064823486</v>
+        <v>0.09433667470258041</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1825453916698413</v>
+        <v>0.17584969555244</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>175</v>
@@ -1981,19 +1981,19 @@
         <v>99648</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>85338</v>
+        <v>85197</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>114495</v>
+        <v>115535</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2361551435430093</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.202240343802771</v>
+        <v>0.2019079932846305</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2713406996670767</v>
+        <v>0.2738056105253422</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>222</v>
@@ -2002,19 +2002,19 @@
         <v>148569</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>128763</v>
+        <v>128846</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>171329</v>
+        <v>171740</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1868544095373527</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1619446431575712</v>
+        <v>0.1620482433456462</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2154796582754027</v>
+        <v>0.2159959815007139</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>264941</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>242572</v>
+        <v>243879</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>286920</v>
+        <v>284748</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7100222867408579</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6500740777291514</v>
+        <v>0.653577078001269</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7689244139999423</v>
+        <v>0.7631029615103596</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>292</v>
@@ -2052,19 +2052,19 @@
         <v>235192</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>215699</v>
+        <v>215188</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>252645</v>
+        <v>253343</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.55737875666864</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5111816333859027</v>
+        <v>0.5099709638583965</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5987412357386297</v>
+        <v>0.6003944130985356</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>484</v>
@@ -2073,19 +2073,19 @@
         <v>500134</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>468485</v>
+        <v>469841</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>528148</v>
+        <v>527825</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6290146884413778</v>
+        <v>0.6290146884413776</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5892103516679288</v>
+        <v>0.5909151771025349</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6642479989552358</v>
+        <v>0.6638417286547988</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>5084</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2364</v>
+        <v>2277</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9273</v>
+        <v>9849</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02472190228169463</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01149543962646839</v>
+        <v>0.01106897299915015</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04508891622528701</v>
+        <v>0.04788645162401675</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>25</v>
@@ -2198,19 +2198,19 @@
         <v>10512</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6982</v>
+        <v>7200</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15217</v>
+        <v>15206</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.04634493971609027</v>
+        <v>0.04634493971609026</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03078191154250546</v>
+        <v>0.03174186404424399</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06708745036112507</v>
+        <v>0.06704015029522688</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>33</v>
@@ -2219,19 +2219,19 @@
         <v>15597</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10331</v>
+        <v>11052</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>21670</v>
+        <v>21598</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03606235269965318</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02388709384921739</v>
+        <v>0.02555342653539549</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05010429936968912</v>
+        <v>0.04994011183398386</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>10185</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6352</v>
+        <v>6472</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16327</v>
+        <v>15989</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04952325731897231</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03088528000132848</v>
+        <v>0.0314667843992392</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07938801647264837</v>
+        <v>0.07774081575726843</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -2269,19 +2269,19 @@
         <v>13962</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9675</v>
+        <v>9935</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18814</v>
+        <v>19391</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0615544729414893</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04265615403547974</v>
+        <v>0.0438006093413835</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08294765244927238</v>
+        <v>0.08549034418380756</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>52</v>
@@ -2290,19 +2290,19 @@
         <v>24147</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18371</v>
+        <v>17625</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>31622</v>
+        <v>31648</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05583316658351851</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04247850440273948</v>
+        <v>0.04075348405155155</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07311634453847821</v>
+        <v>0.0731758936916712</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>146642</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>133550</v>
+        <v>134064</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>158434</v>
+        <v>158287</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7130121909110287</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6493591209534858</v>
+        <v>0.6518574141898053</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7703484511368215</v>
+        <v>0.7696341274848638</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>379</v>
@@ -2340,19 +2340,19 @@
         <v>165422</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>154222</v>
+        <v>153624</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>175281</v>
+        <v>175149</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7293011765023611</v>
+        <v>0.729301176502361</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6799223237471529</v>
+        <v>0.6772856956665273</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7727640930115252</v>
+        <v>0.7721815124623986</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>588</v>
@@ -2361,19 +2361,19 @@
         <v>312064</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>294605</v>
+        <v>294867</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>326948</v>
+        <v>327157</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7215551365548957</v>
+        <v>0.7215551365548958</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6811868048736599</v>
+        <v>0.6817927888598831</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7559696742565328</v>
+        <v>0.7564544336160398</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>43754</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>33100</v>
+        <v>32435</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>56834</v>
+        <v>56484</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2127426494883044</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1609393112684168</v>
+        <v>0.1577056228368894</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2763421513350116</v>
+        <v>0.2746393635144861</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>52</v>
@@ -2411,19 +2411,19 @@
         <v>36927</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>28550</v>
+        <v>28460</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>48359</v>
+        <v>49863</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1627994108400593</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1258706260096634</v>
+        <v>0.1254705986602862</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2132008110925275</v>
+        <v>0.2198342111784911</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>97</v>
@@ -2432,19 +2432,19 @@
         <v>80680</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>66580</v>
+        <v>65643</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>98983</v>
+        <v>97432</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1865493441619324</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1539458179510935</v>
+        <v>0.151779072007313</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2288693428027496</v>
+        <v>0.2252815566401675</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>16049</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10611</v>
+        <v>10478</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>24352</v>
+        <v>24002</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05928393980410213</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03919809404649576</v>
+        <v>0.03870698060289494</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08995766022082098</v>
+        <v>0.08866495295107324</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>45</v>
@@ -2557,19 +2557,19 @@
         <v>24023</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>17591</v>
+        <v>17360</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>31994</v>
+        <v>32294</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.0910829050641124</v>
+        <v>0.09108290506411235</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06669463559781257</v>
+        <v>0.06582010210511584</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1213024654189103</v>
+        <v>0.1224400057641207</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>69</v>
@@ -2578,19 +2578,19 @@
         <v>40072</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30631</v>
+        <v>29946</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>50372</v>
+        <v>50415</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07497646907085227</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05731292126514757</v>
+        <v>0.05603077704865996</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09424897540382055</v>
+        <v>0.09432850877371514</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>24778</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17561</v>
+        <v>18632</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>33526</v>
+        <v>33989</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09153199982861834</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0648712413382302</v>
+        <v>0.06882855186449754</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1238448320509622</v>
+        <v>0.1255571144746402</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>99</v>
@@ -2628,19 +2628,19 @@
         <v>49148</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>40630</v>
+        <v>40866</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>59212</v>
+        <v>59058</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.1863412514282162</v>
+        <v>0.1863412514282161</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1540473851905962</v>
+        <v>0.1549427180411735</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2244995557304607</v>
+        <v>0.2239169875887392</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>139</v>
@@ -2649,19 +2649,19 @@
         <v>73926</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>61616</v>
+        <v>61995</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>86700</v>
+        <v>86938</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1383195900322653</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1152877281331851</v>
+        <v>0.1159956770760866</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1622205312237756</v>
+        <v>0.1626669504833906</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>38943</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>30359</v>
+        <v>30457</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>50111</v>
+        <v>49235</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1438550513004922</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1121462716600607</v>
+        <v>0.1125088420142129</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1851127293130452</v>
+        <v>0.1818755911960349</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>97</v>
@@ -2699,19 +2699,19 @@
         <v>44860</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>36761</v>
+        <v>36584</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>54449</v>
+        <v>55083</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1700847399920218</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1393797047532015</v>
+        <v>0.1387077655277799</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2064427659038264</v>
+        <v>0.2088453244229445</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>160</v>
@@ -2720,19 +2720,19 @@
         <v>83802</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>71562</v>
+        <v>71396</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>96503</v>
+        <v>97334</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1567991881327433</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1338969157145942</v>
+        <v>0.1335869443181062</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1805620730353528</v>
+        <v>0.1821166999254187</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>190938</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>176594</v>
+        <v>177295</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>203977</v>
+        <v>202948</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7053290090667874</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6523433984830199</v>
+        <v>0.6549340884027244</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7534961075495643</v>
+        <v>0.7496947908697583</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>219</v>
@@ -2770,19 +2770,19 @@
         <v>145720</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>133713</v>
+        <v>131717</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>158168</v>
+        <v>158257</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.5524911035156498</v>
+        <v>0.5524911035156496</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.506968833132026</v>
+        <v>0.4994014284520158</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.599690862906907</v>
+        <v>0.6000251950716226</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>463</v>
@@ -2791,19 +2791,19 @@
         <v>336657</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>318192</v>
+        <v>316636</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>354539</v>
+        <v>354263</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.6299047527641389</v>
+        <v>0.629904752764139</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5953563246011941</v>
+        <v>0.5924443164873807</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6633636111160576</v>
+        <v>0.6628471190931357</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>38142</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>26027</v>
+        <v>27409</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>52013</v>
+        <v>53269</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05307718669395284</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03621887456151383</v>
+        <v>0.03814223871787237</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07237999783380795</v>
+        <v>0.07412858671238505</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>103</v>
@@ -2916,19 +2916,19 @@
         <v>81507</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>67011</v>
+        <v>66860</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>100195</v>
+        <v>97103</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1055708085339862</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08679506295944484</v>
+        <v>0.08660043294449719</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.129776777893741</v>
+        <v>0.1257716692602938</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>139</v>
@@ -2937,19 +2937,19 @@
         <v>119648</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>99947</v>
+        <v>100207</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>140002</v>
+        <v>141850</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.08026514482365343</v>
+        <v>0.08026514482365345</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06704844335157302</v>
+        <v>0.06722291120082102</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09391916424565251</v>
+        <v>0.09515899469012926</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>52677</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>39190</v>
+        <v>40147</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>67062</v>
+        <v>68326</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.07330402002452424</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05453553798644033</v>
+        <v>0.05586732686053386</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09332181519587225</v>
+        <v>0.09508084805685425</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>160</v>
@@ -2987,19 +2987,19 @@
         <v>117305</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>100203</v>
+        <v>100914</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>135773</v>
+        <v>136599</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1519378164913224</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1297865554098437</v>
+        <v>0.1307081866783857</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1758582698970338</v>
+        <v>0.1769287821800143</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>212</v>
@@ -3008,19 +3008,19 @@
         <v>169981</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>148620</v>
+        <v>149053</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>194314</v>
+        <v>195963</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1140307272125636</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09970050498675255</v>
+        <v>0.09999114969080444</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1303544461449024</v>
+        <v>0.1314604479566721</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>164657</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>139830</v>
+        <v>141629</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>189363</v>
+        <v>192874</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2291336060551582</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1945857859154596</v>
+        <v>0.197088692528262</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2635153985582092</v>
+        <v>0.2684009361019955</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>247</v>
@@ -3058,19 +3058,19 @@
         <v>194905</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>176562</v>
+        <v>170686</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>222219</v>
+        <v>217338</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.2524493624332381</v>
+        <v>0.2524493624332382</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2286909300844326</v>
+        <v>0.2210799509236695</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.287827656627076</v>
+        <v>0.2815048854314781</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>395</v>
@@ -3079,19 +3079,19 @@
         <v>359562</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>327810</v>
+        <v>328557</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>392497</v>
+        <v>390198</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2412095075828005</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2199092028131613</v>
+        <v>0.2204098018076794</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2633037118296047</v>
+        <v>0.2617615734274711</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>463130</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>434501</v>
+        <v>433839</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>493654</v>
+        <v>494104</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6444851872263648</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6046444855317962</v>
+        <v>0.6037233655904339</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6869613860119824</v>
+        <v>0.6875880613477178</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>450</v>
@@ -3129,19 +3129,19 @@
         <v>378340</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>352763</v>
+        <v>349525</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>406484</v>
+        <v>406184</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4900420125414532</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4569127451117985</v>
+        <v>0.4527197698317984</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5264949826859269</v>
+        <v>0.5261065644693962</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>812</v>
@@ -3150,19 +3150,19 @@
         <v>841471</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>803902</v>
+        <v>800230</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>880395</v>
+        <v>881749</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.5644946203809824</v>
+        <v>0.5644946203809825</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5392916863293068</v>
+        <v>0.536828701125847</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5906064898957066</v>
+        <v>0.5915152312406731</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>107828</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>91216</v>
+        <v>90799</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>126346</v>
+        <v>127664</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1351109907958568</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1142953579068509</v>
+        <v>0.1137725992844447</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1583145407744609</v>
+        <v>0.1599650670405032</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>234</v>
@@ -3275,19 +3275,19 @@
         <v>153811</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>136614</v>
+        <v>136706</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>173397</v>
+        <v>172537</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1851783131958194</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1644744343342326</v>
+        <v>0.1645849624050391</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2087584570517695</v>
+        <v>0.2077230282853325</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>364</v>
@@ -3296,19 +3296,19 @@
         <v>261639</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>238270</v>
+        <v>236996</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>290218</v>
+        <v>289557</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1606447598039014</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1462963407111287</v>
+        <v>0.1455142081447086</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1781922133754865</v>
+        <v>0.1777860767992902</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>51505</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>40240</v>
+        <v>40256</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>67737</v>
+        <v>67159</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.06453616943264519</v>
+        <v>0.06453616943264517</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05042106206821985</v>
+        <v>0.05044097552098286</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.08487577122092933</v>
+        <v>0.08415112639035398</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>141</v>
@@ -3346,19 +3346,19 @@
         <v>97293</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>82054</v>
+        <v>81920</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>114158</v>
+        <v>112380</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.1171340947716006</v>
+        <v>0.1171340947716007</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.09878827452414407</v>
+        <v>0.09862604265172675</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1374389908996596</v>
+        <v>0.1352981464256122</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>202</v>
@@ -3367,19 +3367,19 @@
         <v>148797</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>129280</v>
+        <v>127903</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>170056</v>
+        <v>168946</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.09136051736119086</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07937729538994176</v>
+        <v>0.07853141071096779</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1044132332420737</v>
+        <v>0.103731652927159</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>102310</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>83740</v>
+        <v>85451</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>120161</v>
+        <v>121264</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.128196192041633</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1049276603039579</v>
+        <v>0.1070713581053172</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1505640601213794</v>
+        <v>0.1519466379910306</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>175</v>
@@ -3417,19 +3417,19 @@
         <v>131370</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>114056</v>
+        <v>114579</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>151409</v>
+        <v>154127</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1581614663177261</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1373156151518764</v>
+        <v>0.1379455218639448</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1822866735228492</v>
+        <v>0.1855591615687235</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>287</v>
@@ -3438,19 +3438,19 @@
         <v>233680</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>208218</v>
+        <v>209357</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>261165</v>
+        <v>261091</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1434781435212079</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1278448500007575</v>
+        <v>0.1285437686916762</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1603539633375162</v>
+        <v>0.1603084468833963</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>536429</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>508747</v>
+        <v>509666</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>564999</v>
+        <v>559891</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.6721566477298652</v>
+        <v>0.6721566477298649</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.63746965982672</v>
+        <v>0.6386213476178422</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.7079544113721532</v>
+        <v>0.70155451386907</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>511</v>
@@ -3488,19 +3488,19 @@
         <v>448135</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>422848</v>
+        <v>420952</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>472896</v>
+        <v>472875</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.5395261257148538</v>
+        <v>0.5395261257148539</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5090823811942842</v>
+        <v>0.506798924480279</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5693361044003976</v>
+        <v>0.5693105940268669</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>970</v>
@@ -3509,19 +3509,19 @@
         <v>984565</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>939788</v>
+        <v>948312</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1019119</v>
+        <v>1027318</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.6045165793136998</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5770239696771544</v>
+        <v>0.5822577673204605</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.6257325370370473</v>
+        <v>0.6307668398798542</v>
       </c>
     </row>
     <row r="43">
@@ -3613,19 +3613,19 @@
         <v>229868</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>199181</v>
+        <v>201441</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>257815</v>
+        <v>260511</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.06508757148913488</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.05639823702937712</v>
+        <v>0.0570381935525263</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.07300058897704809</v>
+        <v>0.07376409561947496</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>570</v>
@@ -3634,19 +3634,19 @@
         <v>377184</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>344792</v>
+        <v>347568</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>410559</v>
+        <v>411941</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.1010242237302333</v>
+        <v>0.1010242237302332</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.09234845524707457</v>
+        <v>0.09309184702802879</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1099632987175591</v>
+        <v>0.110333487781023</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>829</v>
@@ -3655,19 +3655,19 @@
         <v>607052</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>562775</v>
+        <v>564637</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>652936</v>
+        <v>654864</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.08355527700426991</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0774609092945158</v>
+        <v>0.07771721071507486</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.08987068348177814</v>
+        <v>0.09013614995081236</v>
       </c>
     </row>
     <row r="45">
@@ -3684,19 +3684,19 @@
         <v>262852</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>229841</v>
+        <v>231552</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>297877</v>
+        <v>293308</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.07442700689035826</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.06507972254678919</v>
+        <v>0.06556437710925143</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.08434422053781949</v>
+        <v>0.08305062839193895</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>739</v>
@@ -3705,19 +3705,19 @@
         <v>463090</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>426468</v>
+        <v>430316</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>497806</v>
+        <v>496971</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1240330501432527</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1142242981237729</v>
+        <v>0.1152550610917368</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.133331358546949</v>
+        <v>0.1331077823200825</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1032</v>
@@ -3726,19 +3726,19 @@
         <v>725942</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>680606</v>
+        <v>677113</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>769268</v>
+        <v>777450</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.09991935916678459</v>
+        <v>0.09991935916678457</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.09367926744106712</v>
+        <v>0.0931984729625933</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1058828565148885</v>
+        <v>0.1070089927022143</v>
       </c>
     </row>
     <row r="46">
@@ -3755,19 +3755,19 @@
         <v>660472</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>614326</v>
+        <v>612705</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>711145</v>
+        <v>708276</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1870136782054442</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1739473526605962</v>
+        <v>0.1734881309107966</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2013618111754006</v>
+        <v>0.200549345536374</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1443</v>
@@ -3776,19 +3776,19 @@
         <v>874292</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>825696</v>
+        <v>828244</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>914418</v>
+        <v>917814</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2341686498479178</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2211529011573448</v>
+        <v>0.2218353576312432</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.24491591400264</v>
+        <v>0.2458255801636517</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>2182</v>
@@ -3797,19 +3797,19 @@
         <v>1534764</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1468122</v>
+        <v>1475886</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1599812</v>
+        <v>1607816</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2112464343349041</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.202073753423557</v>
+        <v>0.2031424112152219</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2201997052954938</v>
+        <v>0.2213014019982997</v>
       </c>
     </row>
     <row r="47">
@@ -3826,19 +3826,19 @@
         <v>2378487</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2319036</v>
+        <v>2316652</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2443015</v>
+        <v>2436146</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.6734717434150627</v>
+        <v>0.6734717434150628</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.6566380965173546</v>
+        <v>0.6559630862067501</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.6917429776152584</v>
+        <v>0.6897980411839922</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2609</v>
@@ -3847,19 +3847,19 @@
         <v>2019033</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1966332</v>
+        <v>1965096</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>2077014</v>
+        <v>2076469</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.5407740762785963</v>
+        <v>0.5407740762785962</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.5266587115839585</v>
+        <v>0.5263277121612219</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.5563037127488455</v>
+        <v>0.5561575923501195</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>4693</v>
@@ -3868,19 +3868,19 @@
         <v>4397520</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>4317974</v>
+        <v>4311659</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>4481870</v>
+        <v>4477569</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.6052789294940414</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.5943300938651567</v>
+        <v>0.5934608570253908</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.6168888638300863</v>
+        <v>0.616296849450351</v>
       </c>
     </row>
     <row r="48">
